--- a/Outputs/4. Prosumer percentage constrained/Output Files/100/Output_0_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/100/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1174829.864909614</v>
+        <v>1164721.673348849</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16597726.15245798</v>
+        <v>16597726.15245799</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484457</v>
+        <v>492028.9342484453</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>368.9686833007854</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.6752291802902</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.2562615404869</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -823,16 +823,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>50.06795868237715</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -868,7 +868,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,7 +877,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -899,7 +899,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>102.3050349095835</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>184.515494921068</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1066,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>199.1362892344166</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1136,10 +1136,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>246.0875767325615</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>30.15774997692755</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.6990987647611</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1421,13 +1421,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>206.4855017772213</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783088935</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>193.8659438253731</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1610,7 +1610,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>246.3549093206772</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1619,7 +1619,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>212.1880754063476</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170498</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>143.3627470649799</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>212.6006968854788</v>
       </c>
       <c r="H17" t="n">
-        <v>101.4556968337262</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225694</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2138,7 +2138,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>91.39226931002077</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>136.6047512078524</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>82.64119670414924</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,10 +2488,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015889</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>272.501805010002</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>31.24391673888196</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>104.6990987647615</v>
       </c>
     </row>
     <row r="29">
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225768</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3193,19 +3193,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>123.7760609888575</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>122.4914619056507</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3424,10 +3424,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3478,7 +3478,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>238.2650401936894</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>198.9373250430712</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888129</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3712,7 +3712,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>103.8284742946043</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3958,13 +3958,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>125.1716544454839</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>131.31315890438</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>35.47248331510136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>572.680504503604</v>
+        <v>2008.901827435646</v>
       </c>
       <c r="C2" t="n">
-        <v>134.5380316870273</v>
+        <v>1636.206187737883</v>
       </c>
       <c r="D2" t="n">
-        <v>102.6686509018759</v>
+        <v>1200.296402912328</v>
       </c>
       <c r="E2" t="n">
-        <v>72.93431010057516</v>
+        <v>766.5216580706228</v>
       </c>
       <c r="F2" t="n">
-        <v>49.10728455018695</v>
+        <v>338.6542284798306</v>
       </c>
       <c r="G2" t="n">
-        <v>49.10728455018695</v>
+        <v>338.6542284798306</v>
       </c>
       <c r="H2" t="n">
-        <v>49.10728455018695</v>
+        <v>49.52407392304688</v>
       </c>
       <c r="I2" t="n">
-        <v>49.10728455018695</v>
+        <v>49.10728455018689</v>
       </c>
       <c r="J2" t="n">
         <v>484.3619720031048</v>
       </c>
       <c r="K2" t="n">
-        <v>524.306084180569</v>
+        <v>1092.064618311668</v>
       </c>
       <c r="L2" t="n">
-        <v>1132.008730489132</v>
+        <v>1132.00873048913</v>
       </c>
       <c r="M2" t="n">
-        <v>1132.008730489132</v>
+        <v>1132.00873048913</v>
       </c>
       <c r="N2" t="n">
-        <v>1132.008730489132</v>
+        <v>1132.00873048913</v>
       </c>
       <c r="O2" t="n">
-        <v>1132.008730489132</v>
+        <v>1739.711376797693</v>
       </c>
       <c r="P2" t="n">
-        <v>1739.711376797696</v>
+        <v>1739.711376797693</v>
       </c>
       <c r="Q2" t="n">
-        <v>2286.210162756291</v>
+        <v>2286.210162756287</v>
       </c>
       <c r="R2" t="n">
-        <v>2455.364227509348</v>
+        <v>2455.364227509344</v>
       </c>
       <c r="S2" t="n">
-        <v>2455.364227509348</v>
+        <v>2455.364227509344</v>
       </c>
       <c r="T2" t="n">
-        <v>2455.364227509348</v>
+        <v>2455.364227509344</v>
       </c>
       <c r="U2" t="n">
-        <v>2455.364227509348</v>
+        <v>2455.364227509344</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.747277443174</v>
+        <v>2455.364227509344</v>
       </c>
       <c r="W2" t="n">
-        <v>1826.408662109548</v>
+        <v>2050.508772920378</v>
       </c>
       <c r="X2" t="n">
-        <v>1407.266198688858</v>
+        <v>2035.406713540093</v>
       </c>
       <c r="Y2" t="n">
-        <v>998.9800749885118</v>
+        <v>2031.16099388015</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>555.2790295414798</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
         <v>448.822568378122</v>
       </c>
       <c r="D3" t="n">
-        <v>353.7322795246753</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>259.611864851629</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>176.2280264677906</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>90.84293673397448</v>
+        <v>90.84293673397443</v>
       </c>
       <c r="H3" t="n">
-        <v>49.10728455018695</v>
+        <v>49.10728455018689</v>
       </c>
       <c r="I3" t="n">
-        <v>75.17095771064456</v>
+        <v>75.17095771064449</v>
       </c>
       <c r="J3" t="n">
-        <v>399.7292826768569</v>
+        <v>399.7292826768568</v>
       </c>
       <c r="K3" t="n">
         <v>1007.43192898542</v>
       </c>
       <c r="L3" t="n">
-        <v>1007.43192898542</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="M3" t="n">
-        <v>1054.435329302581</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="N3" t="n">
-        <v>1054.435329302581</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="O3" t="n">
-        <v>1054.435329302581</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="P3" t="n">
-        <v>1054.435329302581</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="Q3" t="n">
         <v>1595.174267934656</v>
@@ -4437,7 +4437,7 @@
         <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1518.712964807981</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
         <v>1342.376417807949</v>
@@ -4446,13 +4446,13 @@
         <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>957.9361456031422</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>803.0687098420221</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>676.5829306212429</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1128.165445162068</v>
+        <v>526.7806337295287</v>
       </c>
       <c r="C4" t="n">
-        <v>955.6037336452933</v>
+        <v>354.2189222127537</v>
       </c>
       <c r="D4" t="n">
-        <v>789.7257408468161</v>
+        <v>188.3409294142764</v>
       </c>
       <c r="E4" t="n">
-        <v>619.9677370975533</v>
+        <v>188.3409294142764</v>
       </c>
       <c r="F4" t="n">
-        <v>443.2606830593094</v>
+        <v>188.3409294142764</v>
       </c>
       <c r="G4" t="n">
-        <v>277.6694080851371</v>
+        <v>188.3409294142764</v>
       </c>
       <c r="H4" t="n">
         <v>137.7672337755116</v>
       </c>
       <c r="I4" t="n">
-        <v>49.10728455018695</v>
+        <v>49.10728455018689</v>
       </c>
       <c r="J4" t="n">
-        <v>135.6869697148768</v>
+        <v>49.10728455018689</v>
       </c>
       <c r="K4" t="n">
-        <v>200.0427573423735</v>
+        <v>323.8657391213225</v>
       </c>
       <c r="L4" t="n">
-        <v>618.2526391103346</v>
+        <v>742.0756208892835</v>
       </c>
       <c r="M4" t="n">
-        <v>1077.736506291247</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>1519.995309448892</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1939.664558674674</v>
+        <v>2063.487540453623</v>
       </c>
       <c r="P4" t="n">
-        <v>2287.171452645016</v>
+        <v>2410.994434423965</v>
       </c>
       <c r="Q4" t="n">
-        <v>2455.364227509348</v>
+        <v>2455.364227509344</v>
       </c>
       <c r="R4" t="n">
-        <v>2433.946406214719</v>
+        <v>2433.946406214716</v>
       </c>
       <c r="S4" t="n">
-        <v>2274.705037512716</v>
+        <v>2274.705037512713</v>
       </c>
       <c r="T4" t="n">
-        <v>2274.705037512716</v>
+        <v>2028.825591091168</v>
       </c>
       <c r="U4" t="n">
-        <v>1996.272036765821</v>
+        <v>1750.392590344273</v>
       </c>
       <c r="V4" t="n">
-        <v>1709.316528636252</v>
+        <v>1463.437082214704</v>
       </c>
       <c r="W4" t="n">
-        <v>1709.316528636252</v>
+        <v>1191.410677800995</v>
       </c>
       <c r="X4" t="n">
-        <v>1463.924773969664</v>
+        <v>946.0189231344077</v>
       </c>
       <c r="Y4" t="n">
-        <v>1236.505103283772</v>
+        <v>718.5992524485159</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>648.8602641703436</v>
+        <v>1270.561784452093</v>
       </c>
       <c r="C5" t="n">
-        <v>210.7177913537669</v>
+        <v>832.4193116355168</v>
       </c>
       <c r="D5" t="n">
-        <v>107.3793722531775</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E5" t="n">
-        <v>77.64503145187676</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
         <v>53.81800590148855</v>
@@ -4565,19 +4565,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4598,19 +4598,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2483.681538632369</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365254</v>
+        <v>2121.064588566196</v>
       </c>
       <c r="W5" t="n">
-        <v>1902.588421776288</v>
+        <v>2120.249538017633</v>
       </c>
       <c r="X5" t="n">
-        <v>1483.445958355598</v>
+        <v>1701.107074596944</v>
       </c>
       <c r="Y5" t="n">
-        <v>1075.159834655251</v>
+        <v>1696.861354937001</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L6" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>966.8681021663376</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>794.3063906495626</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>628.4283978510853</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>458.6703941018225</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
         <v>281.9633400635787</v>
@@ -4723,19 +4723,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4753,22 +4753,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2468.913059527977</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>2190.480058781082</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1903.524550651513</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1631.498146237804</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1386.106391571217</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1158.686720885325</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>793.6783655277644</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>355.5358927111877</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
         <v>77.22824207901677</v>
@@ -4808,13 +4808,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4835,19 +4835,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.221573682271</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W8" t="n">
-        <v>1643.366119093304</v>
+        <v>2234.742998128393</v>
       </c>
       <c r="X8" t="n">
-        <v>1224.223655672615</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y8" t="n">
-        <v>815.9375319722682</v>
+        <v>1407.314411007357</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4984,28 +4984,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="T10" t="n">
-        <v>2424.181380009883</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2145.748379262989</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1858.792871133419</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1586.766466719711</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1341.374712053123</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1235.618046634173</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5033,46 +5033,46 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397513</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111513</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111513</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1171.795942933974</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940403</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940403</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510709</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344105</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.6447693027</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239594</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V11" t="n">
         <v>4181.958796257035</v>
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5112,10 +5112,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292997</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776221</v>
+        <v>914.5724765508969</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777442</v>
+        <v>748.6944837524196</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160654</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2589.179145429311</v>
       </c>
       <c r="U13" t="n">
-        <v>2308.274771460367</v>
+        <v>2310.746144682416</v>
       </c>
       <c r="V13" t="n">
-        <v>2112.450585778171</v>
+        <v>2023.790636552846</v>
       </c>
       <c r="W13" t="n">
-        <v>1840.424181364463</v>
+        <v>1751.764232139138</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.032426697876</v>
+        <v>1506.37247747255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.612756011984</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.308741984727</v>
+        <v>2336.308741984729</v>
       </c>
       <c r="C14" t="n">
-        <v>1898.166269168151</v>
+        <v>1898.166269168153</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1462.256484342597</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1028.481739500892</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874949</v>
+        <v>600.6143099101</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397513</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5282,46 +5282,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="M14" t="n">
-        <v>2523.388791302762</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="N14" t="n">
-        <v>3292.836108510709</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510709</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344105</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.6447693027</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928795</v>
+        <v>4616.731606928796</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245812</v>
+        <v>4357.509304245813</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.892354179638</v>
+        <v>3994.892354179639</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590671</v>
+        <v>3590.036899590673</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169982</v>
+        <v>3170.894436169984</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.608312469635</v>
+        <v>2762.608312469637</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
         <v>401.3609716556035</v>
@@ -5349,10 +5349,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
         <v>447.3579748077851</v>
@@ -5397,10 +5397,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987276</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819526</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834753</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342125</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F16" t="n">
-        <v>121.3250519959687</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111513</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111513</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S16" t="n">
         <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U16" t="n">
         <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1885.03091509228</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1613.004510678571</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1367.612756011984</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177147</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2336.308741984729</v>
       </c>
       <c r="C17" t="n">
-        <v>1898.166269168153</v>
+        <v>1898.166269168152</v>
       </c>
       <c r="D17" t="n">
         <v>1462.256484342597</v>
@@ -5501,10 +5501,10 @@
         <v>1028.481739500892</v>
       </c>
       <c r="F17" t="n">
-        <v>600.6143099101</v>
+        <v>600.6143099100997</v>
       </c>
       <c r="G17" t="n">
-        <v>199.2164785333639</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
         <v>96.73597668111516</v>
@@ -5513,28 +5513,28 @@
         <v>96.73597668111516</v>
       </c>
       <c r="J17" t="n">
-        <v>403.2461837293665</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>1237.596475687544</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.83610851071</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344106</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302701</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055758</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D19" t="n">
         <v>608.792309442794</v>
@@ -5701,10 +5701,10 @@
         <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
         <v>1883.888462243221</v>
@@ -5716,7 +5716,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5756,22 +5756,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2312.656441940404</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940404</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.83610851071</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344106</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302701</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055758</v>
@@ -5780,19 +5780,19 @@
         <v>4753.146960239595</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y20" t="n">
         <v>2949.257965174172</v>
@@ -5835,16 +5835,16 @@
         <v>447.3579748077851</v>
       </c>
       <c r="L21" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M21" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
         <v>1102.064021433509</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>998.0484328177142</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C22" t="n">
-        <v>998.0484328177143</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D22" t="n">
-        <v>832.170440019237</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
-        <v>662.4124362699743</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>485.7053822317305</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>320.1141072575581</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H22" t="n">
-        <v>180.2119329479326</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I22" t="n">
         <v>96.73597668111516</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460366</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713471</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0484328177142</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="23">
@@ -5993,10 +5993,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,10 +6069,10 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903953</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736203</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>632.556342075143</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258802</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876363</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457407</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6227,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>936.6111322289576</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740236</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883925</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>811.7546776883925</v>
+        <v>920.0973401405614</v>
       </c>
       <c r="D28" t="n">
-        <v>645.8766848899152</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>476.1186811406524</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>299.4116271024085</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>133.8203521282362</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050032</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303137</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759859</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.57329640738</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6622,16 +6622,16 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
         <v>2203.220781338905</v>
@@ -6655,7 +6655,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W31" t="n">
         <v>1617.386921419177</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>970.9960463903951</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>798.4343348736201</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>632.5563420751428</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928211</v>
+        <v>632.5563420751428</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>455.849288036899</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6862,7 +6862,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
         <v>1341.292728955479</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752035</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.60800300514</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.652494875571</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
         <v>1635.626090461862</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.897341062215</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436394</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,46 +6938,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1008.757289365886</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D37" t="n">
         <v>842.8792965674086</v>
@@ -7084,7 +7084,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7096,7 +7096,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7126,19 +7126,19 @@
         <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2232.369245980631</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1945.413737851061</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1673.387333437352</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1427.995578770765</v>
+        <v>1434.679297489063</v>
       </c>
       <c r="Y37" t="n">
-        <v>1200.575908084873</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,31 +7172,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883917</v>
       </c>
       <c r="C40" t="n">
         <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
         <v>444.5591692831958</v>
@@ -7333,16 +7333,16 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O40" t="n">
         <v>2203.220781338905</v>
@@ -7360,22 +7360,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7418,7 +7418,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423627</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674088</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799022</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.50262887895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755402</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008507</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1726.993304878938</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7646,28 +7646,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M44" t="n">
-        <v>2758.053686176683</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N44" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
         <v>5113.04201353898</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1008.757289365886</v>
+        <v>790.3368563937639</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>790.3368563937639</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>624.4588635952866</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>454.7008598460239</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>277.9938058077802</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>277.9938058077802</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>138.0916314981547</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7831,25 +7831,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457407</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710512</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V46" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W46" t="n">
-        <v>1614.208269167234</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.816514500646</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.396843814754</v>
+        <v>982.155475112751</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>40.34758805804461</v>
+        <v>613.8410568773361</v>
       </c>
       <c r="L2" t="n">
-        <v>613.8410568773369</v>
+        <v>40.34758805804313</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773361</v>
       </c>
       <c r="P2" t="n">
-        <v>613.841056877337</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>613.8410568773369</v>
+        <v>613.8410568773361</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>593.679130251754</v>
       </c>
       <c r="M3" t="n">
-        <v>47.47818213854566</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,10 +8134,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>65.00584608838051</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>44.8179728135151</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8456,7 +8456,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1152.384342430736</v>
+        <v>860.0355415814543</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8930,16 +8930,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>955.8742281294876</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>777.2195123312599</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>309.6062697457085</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9641,13 +9641,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,13 +9717,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7389601124028</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,10 +9890,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10121,7 +10121,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>973.8822356326336</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-4.259375782028067e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10598,7 +10598,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11.38105307847042</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>268.0111327346224</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>90.2200092229007</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>185.1957776566227</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>185.1957776566211</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>140.7232059832939</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>184.78315617749</v>
       </c>
       <c r="H17" t="n">
-        <v>184.7831561774897</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627264</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>267.598511255491</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>267.5985112554907</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>5.132153028922175</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3.146865729423723</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>107.2592358276473</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>120.4463752142713</v>
       </c>
     </row>
     <row r="29">
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627256</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>40.1593012355731</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>120.4463752142709</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>37.38363054573631</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>44.00051207685051</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>117.7661826744377</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>58.58727362741723</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>52.30086641797005</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>581352.4826674279</v>
+        <v>581352.4826674277</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>605886.2217579552</v>
+        <v>605886.221757955</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>605886.2217579552</v>
+        <v>605886.221757955</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321688.3919342451</v>
+        <v>321688.391934245</v>
       </c>
       <c r="C2" t="n">
         <v>321688.3919342451</v>
@@ -26326,13 +26326,13 @@
         <v>303314.3387830057</v>
       </c>
       <c r="G2" t="n">
-        <v>303314.3387830058</v>
+        <v>303314.3387830057</v>
       </c>
       <c r="H2" t="n">
-        <v>303314.3387830058</v>
+        <v>303314.3387830057</v>
       </c>
       <c r="I2" t="n">
-        <v>316114.5504824112</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="J2" t="n">
         <v>316114.5504824113</v>
@@ -26344,7 +26344,7 @@
         <v>316114.5504824112</v>
       </c>
       <c r="M2" t="n">
-        <v>316114.5504824113</v>
+        <v>316114.5504824112</v>
       </c>
       <c r="N2" t="n">
         <v>316114.5504824113</v>
@@ -26353,7 +26353,7 @@
         <v>316114.5504824113</v>
       </c>
       <c r="P2" t="n">
-        <v>316114.5504824113</v>
+        <v>316114.5504824114</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>205712.2565039038</v>
+        <v>205712.2565039035</v>
       </c>
       <c r="C3" t="n">
-        <v>17340.54437390584</v>
+        <v>17340.54437390609</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>161735.0752101142</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>18364.71563283958</v>
       </c>
       <c r="J3" t="n">
-        <v>160607.8294856139</v>
+        <v>160607.8294856137</v>
       </c>
       <c r="K3" t="n">
-        <v>13814.00856784449</v>
+        <v>13814.00856784469</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128943.0713252919</v>
+        <v>129731.7431637382</v>
       </c>
       <c r="C4" t="n">
-        <v>116874.1120803149</v>
+        <v>117716.538545831</v>
       </c>
       <c r="D4" t="n">
-        <v>116874.1120803149</v>
+        <v>117716.538545831</v>
       </c>
       <c r="E4" t="n">
-        <v>5810.675097527972</v>
+        <v>7069.923341617773</v>
       </c>
       <c r="F4" t="n">
-        <v>5810.675097527972</v>
+        <v>7069.923341617774</v>
       </c>
       <c r="G4" t="n">
-        <v>5810.675097527972</v>
+        <v>7069.923341617774</v>
       </c>
       <c r="H4" t="n">
-        <v>5810.675097527972</v>
+        <v>7069.923341617773</v>
       </c>
       <c r="I4" t="n">
-        <v>6055.892226606837</v>
+        <v>7368.282185562895</v>
       </c>
       <c r="J4" t="n">
-        <v>6055.892226606837</v>
+        <v>7368.282185562894</v>
       </c>
       <c r="K4" t="n">
-        <v>6055.892226606836</v>
+        <v>7368.282185562894</v>
       </c>
       <c r="L4" t="n">
-        <v>6055.892226606836</v>
+        <v>7368.282185562894</v>
       </c>
       <c r="M4" t="n">
-        <v>6055.892226606838</v>
+        <v>7368.282185562894</v>
       </c>
       <c r="N4" t="n">
-        <v>6055.892226606837</v>
+        <v>7368.282185562894</v>
       </c>
       <c r="O4" t="n">
-        <v>6055.892226606836</v>
+        <v>7368.282185562894</v>
       </c>
       <c r="P4" t="n">
-        <v>6055.892226606836</v>
+        <v>7368.282185562894</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70949.13625814207</v>
+        <v>70949.13625814204</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26476,10 +26476,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
         <v>73519.34227764752</v>
@@ -26500,10 +26500,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
         <v>77718.2386057925</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-83916.07215309265</v>
+        <v>-84704.74399153879</v>
       </c>
       <c r="C6" t="n">
-        <v>113261.2109182666</v>
+        <v>112418.7844527503</v>
       </c>
       <c r="D6" t="n">
-        <v>130601.7552921724</v>
+        <v>129759.3288266564</v>
       </c>
       <c r="E6" t="n">
-        <v>62249.24619771594</v>
+        <v>60913.43939882924</v>
       </c>
       <c r="F6" t="n">
-        <v>223984.3214078302</v>
+        <v>222648.5146089436</v>
       </c>
       <c r="G6" t="n">
-        <v>223984.3214078303</v>
+        <v>222648.5146089436</v>
       </c>
       <c r="H6" t="n">
-        <v>223984.3214078303</v>
+        <v>222648.5146089436</v>
       </c>
       <c r="I6" t="n">
-        <v>213975.7040171723</v>
+        <v>212640.0897188337</v>
       </c>
       <c r="J6" t="n">
-        <v>71732.59016439799</v>
+        <v>70396.97586605951</v>
       </c>
       <c r="K6" t="n">
-        <v>218526.4110821674</v>
+        <v>217190.7967838285</v>
       </c>
       <c r="L6" t="n">
-        <v>232340.4196500119</v>
+        <v>231004.8053516732</v>
       </c>
       <c r="M6" t="n">
-        <v>97350.47503700861</v>
+        <v>96014.86073866989</v>
       </c>
       <c r="N6" t="n">
-        <v>232340.419650012</v>
+        <v>231004.8053516732</v>
       </c>
       <c r="O6" t="n">
-        <v>232340.4196500119</v>
+        <v>231004.8053516733</v>
       </c>
       <c r="P6" t="n">
-        <v>232340.419650012</v>
+        <v>231004.8053516734</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>613.8410568773369</v>
+        <v>613.8410568773361</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>613.8410568773369</v>
+        <v>613.8410568773361</v>
       </c>
       <c r="C4" t="n">
-        <v>53.67414973052007</v>
+        <v>53.67414973052087</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>541.6845019060822</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>69.06079487080592</v>
       </c>
       <c r="J4" t="n">
-        <v>613.8410568773369</v>
+        <v>613.8410568773361</v>
       </c>
       <c r="K4" t="n">
-        <v>53.67414973052007</v>
+        <v>53.67414973052087</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>613.8410568773369</v>
+        <v>613.8410568773361</v>
       </c>
       <c r="K4" t="n">
-        <v>53.67414973052007</v>
+        <v>53.67414973052087</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6845019060822</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>64.79236478762556</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>137.1316708627868</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.64417099131038</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>88.43519388415207</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>329.2456520677164</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>72.11458473508526</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>44.28436272291265</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>185.4631102447384</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27907,10 +27907,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>328.8330305885842</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34699,10 +34699,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>40.34758805804461</v>
+        <v>613.8410568773361</v>
       </c>
       <c r="L2" t="n">
-        <v>613.8410568773369</v>
+        <v>40.34758805804313</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773361</v>
       </c>
       <c r="P2" t="n">
-        <v>613.841056877337</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,19 +34772,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>613.8410568773369</v>
+        <v>613.8410568773361</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>593.679130251754</v>
       </c>
       <c r="M3" t="n">
-        <v>47.47818213854566</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>65.00584608838051</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
         <v>464.1251183645586</v>
@@ -34872,10 +34872,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>44.8179728135151</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35100,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35176,7 +35176,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,7 +35185,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1152.384342430736</v>
+        <v>860.0355415814543</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>955.8742281294876</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>777.2195123312599</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>309.6062697457085</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697549</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36124,10 +36124,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697549</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36361,13 +36361,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,13 +36437,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36595,13 +36595,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7389601124028</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,10 +36610,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36832,7 +36832,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,7 +36841,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>973.8822356326336</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36990,19 +36990,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645583</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37230,7 +37230,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080417</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,10 +37315,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645584</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37956,7 +37956,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.891691782153</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
